--- a/Travail_Préparatoire.xlsx
+++ b/Travail_Préparatoire.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="236">
   <si>
     <t>NOMBRE EQUIPEMENT/ETAGE</t>
   </si>
@@ -544,7 +544,7 @@
     <t>CALCUL TEMPS/COUTS CONFIG</t>
   </si>
   <si>
-    <t>Switch L2 48p</t>
+    <t>Switch de distribution 48 ports</t>
   </si>
   <si>
     <t>1.0</t>
@@ -604,7 +604,7 @@
     <t>l2 to core</t>
   </si>
   <si>
-    <t>switch l2 24p</t>
+    <t>Switch de distribution 24 ports</t>
   </si>
   <si>
     <t>2.0</t>
@@ -634,7 +634,7 @@
     <t>Aruba 3Y FC NBD Exch 6100 24G CL4 SVC  [for JL677A]</t>
   </si>
   <si>
-    <t>Switch L3</t>
+    <t>Switch coeur de réseau</t>
   </si>
   <si>
     <t>3,0</t>
@@ -670,7 +670,7 @@
     <t>JL085A      ABB</t>
   </si>
   <si>
-    <t>Borne WIFI</t>
+    <t>Borne WI-FI 6E</t>
   </si>
   <si>
     <t>4,0</t>
@@ -703,13 +703,22 @@
     <t>HPE Aruba Networking Central AP Foundation 5-year Subscription E-STU</t>
   </si>
   <si>
-    <t>Configuration</t>
+    <t>Configuration switch de distribution</t>
   </si>
   <si>
     <t>6,0</t>
   </si>
   <si>
-    <t xml:space="preserve">configuration switch L2, L3 </t>
+    <t>configuration switch L2</t>
+  </si>
+  <si>
+    <t>Configuration switch coeur de réseau</t>
+  </si>
+  <si>
+    <t>6,1</t>
+  </si>
+  <si>
+    <t>configuration switch L3</t>
   </si>
 </sst>
 </file>
@@ -722,7 +731,7 @@
     <numFmt numFmtId="166" formatCode="HH:mm:ss"/>
     <numFmt numFmtId="167" formatCode="&quot;€&quot;#,##0.00_);(&quot;€&quot;#,##0.00);&quot;€&quot;0.00_);_(* @_)"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -920,16 +929,10 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="20.0"/>
+      <sz val="15.0"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2039,7 +2042,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="241">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2202,10 +2205,10 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="33" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -2703,11 +2706,14 @@
     <xf borderId="11" fillId="12" fontId="34" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="81" fillId="12" fontId="34" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="11" fillId="10" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="10" fontId="36" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="10" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -9158,7 +9164,7 @@
         <v>0.6</v>
       </c>
       <c r="M118" s="215">
-        <f t="shared" ref="M118:M121" si="49">K118-K118*L118</f>
+        <f t="shared" ref="M118:M122" si="49">K118-K118*L118</f>
         <v>55053.6</v>
       </c>
       <c r="N118" s="214" t="s">
@@ -9251,7 +9257,7 @@
         <v>182</v>
       </c>
       <c r="O120" s="226">
-        <f t="shared" ref="O120:O121" si="50">M120</f>
+        <f t="shared" ref="O120:O122" si="50">M120</f>
         <v>22136.4</v>
       </c>
     </row>
@@ -9274,56 +9280,89 @@
         <v>60.0</v>
       </c>
       <c r="J121" s="232">
-        <v>0.7361111111111112</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K121" s="231">
-        <v>1060.0</v>
+        <v>640.0</v>
       </c>
       <c r="L121" s="233"/>
       <c r="M121" s="234">
         <f t="shared" si="49"/>
-        <v>1060</v>
+        <v>640</v>
       </c>
       <c r="N121" s="235" t="s">
         <v>182</v>
       </c>
       <c r="O121" s="236">
         <f t="shared" si="50"/>
-        <v>1060</v>
+        <v>640</v>
       </c>
     </row>
     <row r="122">
-      <c r="K122" s="157"/>
-      <c r="L122" s="157"/>
+      <c r="A122" s="227" t="s">
+        <v>233</v>
+      </c>
+      <c r="B122" s="228" t="s">
+        <v>234</v>
+      </c>
+      <c r="C122" s="229"/>
+      <c r="D122" s="230" t="s">
+        <v>235</v>
+      </c>
+      <c r="E122" s="162"/>
+      <c r="F122" s="163"/>
+      <c r="G122" s="230"/>
+      <c r="H122" s="163"/>
+      <c r="I122" s="231">
+        <v>60.0</v>
+      </c>
+      <c r="J122" s="232">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="K122" s="231">
+        <v>420.0</v>
+      </c>
+      <c r="L122" s="233"/>
+      <c r="M122" s="234">
+        <f t="shared" si="49"/>
+        <v>420</v>
+      </c>
       <c r="N122" s="237" t="s">
-        <v>15</v>
-      </c>
-      <c r="O122" s="238">
-        <f>SUM(O108:O120)</f>
-        <v>194967.2</v>
+        <v>182</v>
+      </c>
+      <c r="O122" s="236">
+        <f t="shared" si="50"/>
+        <v>420</v>
       </c>
     </row>
     <row r="123">
       <c r="K123" s="157"/>
       <c r="L123" s="157"/>
+      <c r="N123" s="238" t="s">
+        <v>15</v>
+      </c>
+      <c r="O123" s="239">
+        <f>SUM(O107:O122)</f>
+        <v>196027.2</v>
+      </c>
     </row>
     <row r="124">
-      <c r="P124" s="239"/>
+      <c r="P124" s="240"/>
     </row>
     <row r="125">
-      <c r="P125" s="239"/>
+      <c r="P125" s="240"/>
     </row>
     <row r="126">
-      <c r="P126" s="239"/>
+      <c r="P126" s="240"/>
     </row>
     <row r="127">
-      <c r="P127" s="239"/>
+      <c r="P127" s="240"/>
     </row>
     <row r="128">
-      <c r="P128" s="239"/>
+      <c r="P128" s="240"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="87">
     <mergeCell ref="D107:F107"/>
     <mergeCell ref="D111:F111"/>
     <mergeCell ref="G111:H111"/>
@@ -9349,6 +9388,8 @@
     <mergeCell ref="G120:H120"/>
     <mergeCell ref="D121:F121"/>
     <mergeCell ref="G121:H121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="G122:H122"/>
     <mergeCell ref="D113:F113"/>
     <mergeCell ref="G113:H113"/>
     <mergeCell ref="G114:H114"/>
@@ -9364,13 +9405,20 @@
     <mergeCell ref="Z26:Z27"/>
     <mergeCell ref="Y28:Y29"/>
     <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="Q20:V20"/>
-    <mergeCell ref="Q21:V21"/>
-    <mergeCell ref="Q22:V22"/>
     <mergeCell ref="Q13:S13"/>
     <mergeCell ref="Q14:S14"/>
     <mergeCell ref="Q15:S15"/>
     <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q20:V20"/>
+    <mergeCell ref="Q21:V21"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="I39:O39"/>
+    <mergeCell ref="I40:O40"/>
+    <mergeCell ref="I41:O41"/>
+    <mergeCell ref="W41:X41"/>
     <mergeCell ref="I42:O42"/>
     <mergeCell ref="I43:O43"/>
     <mergeCell ref="I44:O44"/>
@@ -9402,13 +9450,6 @@
     <mergeCell ref="G109:H109"/>
     <mergeCell ref="D110:F110"/>
     <mergeCell ref="G110:H110"/>
-    <mergeCell ref="Q23:V23"/>
-    <mergeCell ref="Q24:V24"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="I39:O39"/>
-    <mergeCell ref="I40:O40"/>
-    <mergeCell ref="I41:O41"/>
-    <mergeCell ref="W41:X41"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="S109:T111">

--- a/Travail_Préparatoire.xlsx
+++ b/Travail_Préparatoire.xlsx
@@ -935,7 +935,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -964,6 +964,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF356854"/>
         <bgColor rgb="FF356854"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF11734B"/>
+        <bgColor rgb="FF11734B"/>
       </patternFill>
     </fill>
     <fill>
@@ -2336,86 +2342,86 @@
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="11" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="46" fillId="3" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="46" fillId="6" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="3" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="6" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="11" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="11" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="6" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="7" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="46" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="46" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="11" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="8" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="46" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="46" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="11" fillId="6" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="7" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="8" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="9" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="60" fillId="6" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="60" fillId="7" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="60" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -2481,30 +2487,30 @@
     <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="74" fillId="8" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="74" fillId="9" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="75" fillId="8" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="75" fillId="9" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="76" fillId="8" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="76" fillId="9" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="77" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="74" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="75" fillId="8" fontId="33" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="75" fillId="9" fontId="33" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="75" fillId="8" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="75" fillId="9" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="75" fillId="8" fontId="33" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="75" fillId="9" fontId="33" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="33" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="9" fontId="33" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2517,163 +2523,139 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="78" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="75" fillId="8" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="75" fillId="9" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="75" fillId="8" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="75" fillId="9" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="76" fillId="8" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="76" fillId="9" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="8" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="9" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="8" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="9" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="8" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="9" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="8" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="9" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="79" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="6" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="7" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="6" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="7" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="6" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="7" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="6" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="7" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="9" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="10" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="46" fillId="9" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="46" fillId="10" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="9" fontId="33" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="10" fontId="33" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="9" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="10" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="9" fontId="33" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="10" fontId="33" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="10" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="9" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="10" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="10" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="11" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="11" fontId="26" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="11" fontId="26" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="74" fillId="9" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="75" fillId="9" fontId="33" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="80" fillId="9" fontId="33" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="80" fillId="9" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="81" fillId="9" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="82" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="83" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="80" fillId="9" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="80" fillId="9" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="80" fillId="9" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="81" fillId="9" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="9" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="10" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="10" fontId="26" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="10" fontId="26" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="74" fillId="8" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="82" fillId="9" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="74" fillId="10" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="75" fillId="8" fontId="33" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="75" fillId="10" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="76" fillId="10" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="75" fillId="10" fontId="33" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="80" fillId="8" fontId="33" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="75" fillId="10" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="75" fillId="10" fontId="33" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="80" fillId="8" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="81" fillId="8" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="82" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="83" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="80" fillId="8" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="80" fillId="8" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="80" fillId="8" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="81" fillId="8" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="8" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="82" fillId="8" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="74" fillId="9" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="75" fillId="9" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="76" fillId="9" fontId="33" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="75" fillId="9" fontId="33" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="75" fillId="9" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="75" fillId="9" fontId="33" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="9" fontId="33" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="74" fillId="11" fontId="34" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="75" fillId="11" fontId="34" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="76" fillId="11" fontId="34" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="75" fillId="11" fontId="34" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="75" fillId="11" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="75" fillId="11" fontId="34" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="11" fontId="34" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="10" fontId="33" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="12" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -2683,36 +2665,60 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="75" fillId="12" fontId="34" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="76" fillId="12" fontId="34" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="75" fillId="12" fontId="34" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="75" fillId="12" fontId="34" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="75" fillId="12" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="75" fillId="12" fontId="34" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="75" fillId="12" fontId="34" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="76" fillId="12" fontId="34" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="11" fillId="12" fontId="34" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="81" fillId="12" fontId="34" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="13" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="74" fillId="13" fontId="34" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="75" fillId="13" fontId="34" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="76" fillId="13" fontId="34" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="75" fillId="13" fontId="34" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="75" fillId="13" fontId="34" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="75" fillId="13" fontId="34" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="75" fillId="13" fontId="34" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="76" fillId="13" fontId="34" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="10" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="13" fontId="34" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="81" fillId="13" fontId="34" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="11" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="10" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="11" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
